--- a/biology/Zoologie/Anodonthyla_nigrigularis/Anodonthyla_nigrigularis.xlsx
+++ b/biology/Zoologie/Anodonthyla_nigrigularis/Anodonthyla_nigrigularis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anodonthyla nigrigularis est une espèce d'amphibiens de la famille des Microhylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anodonthyla nigrigularis est une espèce d'amphibiens de la famille des Microhylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Sud-Est de Madagascar. Elle se rencontre dans les environs de Nahampoana, dans le parc national d'Andohahela et dans le parc national de Manantantely[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Sud-Est de Madagascar. Elle se rencontre dans les environs de Nahampoana, dans le parc national d'Andohahela et dans le parc national de Manantantely.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Anodonthyla nigrigularis mesure de 21 à 24 mm pour les mâles ; la taille des femelles n'est pas connue. Son dos est brun marbré de taches claires, beiges ou grisâtres. Son ventre est uniformément grisâtre ; la gorge est sombre. La peau de son dos est lisse à finement granuleuse. Les mâles ont un seul sac vocal.
-Les têtards sont généralement blanchâtres et mesurent jusqu'à 13 mm dont 7,5 mm pour la queue[2].
+Les têtards sont généralement blanchâtres et mesurent jusqu'à 13 mm dont 7,5 mm pour la queue.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce, du latin nigrum, « noir », et gula, « gorge », lui a été donné en référence la coloration de sa gorge[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce, du latin nigrum, « noir », et gula, « gorge », lui a été donné en référence la coloration de sa gorge.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Glaw &amp; Vences, 1992 : A Fieldguide to the Amphibians and Reptiles of Madagascar, p. 1-331  (ISBN 3-929449-00-5) (texte intégral).</t>
         </is>
